--- a/Documentation/4.0 Planning/4.1 Gantt Charts/GanttChart_v1.0.xlsx
+++ b/Documentation/4.0 Planning/4.1 Gantt Charts/GanttChart_v1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -931,7 +931,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1528,10 +1528,10 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
